--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3931.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3931.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.436549702770653</v>
+        <v>0.648594856262207</v>
       </c>
       <c r="B1">
-        <v>2.353416216359861</v>
+        <v>0.7740026116371155</v>
       </c>
       <c r="C1">
-        <v>6.361412736990571</v>
+        <v>0.8881377577781677</v>
       </c>
       <c r="D1">
-        <v>3.883146633190681</v>
+        <v>5.082324504852295</v>
       </c>
       <c r="E1">
-        <v>1.138848448599964</v>
+        <v>1.616735816001892</v>
       </c>
     </row>
   </sheetData>
